--- a/public/result_xlsx/output.xlsx
+++ b/public/result_xlsx/output.xlsx
@@ -421,19 +421,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>刘冲</v>
+        <v>刘冲,张宇</v>
       </c>
       <c r="C2" t="str">
-        <v>张宇 张超</v>
+        <v>张超,张宇</v>
       </c>
       <c r="D2" t="str">
-        <v>张宇 张宇 张超</v>
+        <v>张宇</v>
       </c>
       <c r="E2" t="str">
-        <v>张宇 刘冲</v>
+        <v>张超,张宇</v>
       </c>
       <c r="F2" t="str">
-        <v xml:space="preserve">张超 </v>
+        <v>刘冲,张超</v>
+      </c>
+      <c r="G2" t="str">
+        <v/>
       </c>
       <c r="H2" t="str">
         <v>暂时无</v>
@@ -444,22 +447,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>赵洲洋</v>
+        <v>赵洲洋,陈湘刚</v>
       </c>
       <c r="C3" t="str">
-        <v>陈湘刚 刘冲</v>
+        <v>刘冲,张超</v>
       </c>
       <c r="D3" t="str">
-        <v>张超 赵洲洋</v>
+        <v>赵洲洋,陈湘刚,张超</v>
       </c>
       <c r="E3" t="str">
-        <v>陈湘刚</v>
+        <v>王莉莉,张超</v>
       </c>
       <c r="F3" t="str">
-        <v>张超 王莉莉</v>
+        <v>赵洲洋,陈湘刚,张超</v>
       </c>
       <c r="G3" t="str">
-        <v>张超 赵洲洋</v>
+        <v/>
       </c>
       <c r="H3" t="str">
         <v>暂时无</v>
@@ -470,22 +473,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>陈湘刚 张宇</v>
+        <v>陈湘刚</v>
       </c>
       <c r="C4" t="str">
-        <v>赵洲洋</v>
+        <v>张宇,赵洲洋,陈湘刚</v>
       </c>
       <c r="D4" t="str">
-        <v>陈湘刚 王莉莉</v>
+        <v>王莉莉,张宇,赵洲洋</v>
       </c>
       <c r="E4" t="str">
-        <v>张宇</v>
+        <v>王莉莉,刘冲,张宇</v>
       </c>
       <c r="F4" t="str">
-        <v>赵洲洋 王莉莉</v>
+        <v>陈湘刚,刘冲</v>
       </c>
       <c r="G4" t="str">
-        <v>刘冲</v>
+        <v/>
       </c>
       <c r="H4" t="str">
         <v>暂时无</v>
@@ -496,22 +499,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>张宇</v>
+        <v>张宇,张超</v>
       </c>
       <c r="C5" t="str">
-        <v>张超 赵洲洋</v>
+        <v>赵洲洋,张超</v>
       </c>
       <c r="D5" t="str">
-        <v>张超 赵洲洋</v>
+        <v>赵洲洋,陈湘刚</v>
       </c>
       <c r="E5" t="str">
-        <v>陈湘刚 王莉莉</v>
+        <v>王莉莉,刘冲,张宇</v>
       </c>
       <c r="F5" t="str">
-        <v>刘冲</v>
+        <v>王莉莉,刘冲,赵洲洋</v>
       </c>
       <c r="G5" t="str">
-        <v>张宇 王莉莉</v>
+        <v/>
       </c>
       <c r="H5" t="str">
         <v>暂时无</v>

--- a/public/result_xlsx/output.xlsx
+++ b/public/result_xlsx/output.xlsx
@@ -438,9 +438,6 @@
       <c r="G2" t="str">
         <v/>
       </c>
-      <c r="H2" t="str">
-        <v>暂时无</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -464,9 +461,6 @@
       <c r="G3" t="str">
         <v/>
       </c>
-      <c r="H3" t="str">
-        <v>暂时无</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -490,9 +484,6 @@
       <c r="G4" t="str">
         <v/>
       </c>
-      <c r="H4" t="str">
-        <v>暂时无</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -516,9 +507,6 @@
       <c r="G5" t="str">
         <v/>
       </c>
-      <c r="H5" t="str">
-        <v>暂时无</v>
-      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/public/result_xlsx/output.xlsx
+++ b/public/result_xlsx/output.xlsx
@@ -10,7 +10,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="13">
+  <numFmts count="21">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
@@ -24,6 +24,14 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+    <numFmt numFmtId="176" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="177" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="178" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="179" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="180" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="182" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="183" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -388,7 +396,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="mySheet"/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -421,19 +429,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>刘冲,张宇</v>
+        <v>梁雨果,余振强</v>
       </c>
       <c r="C2" t="str">
-        <v>张超,张宇</v>
+        <v>郝常铭</v>
       </c>
       <c r="D2" t="str">
-        <v>张宇</v>
+        <v>郝常铭,鲁毫辉,王维</v>
       </c>
       <c r="E2" t="str">
-        <v>张超,张宇</v>
+        <v/>
       </c>
       <c r="F2" t="str">
-        <v>刘冲,张超</v>
+        <v>王维</v>
       </c>
       <c r="G2" t="str">
         <v/>
@@ -444,19 +452,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>赵洲洋,陈湘刚</v>
+        <v/>
       </c>
       <c r="C3" t="str">
-        <v>刘冲,张超</v>
+        <v>梁雨果,王维</v>
       </c>
       <c r="D3" t="str">
-        <v>赵洲洋,陈湘刚,张超</v>
+        <v/>
       </c>
       <c r="E3" t="str">
-        <v>王莉莉,张超</v>
+        <v/>
       </c>
       <c r="F3" t="str">
-        <v>赵洲洋,陈湘刚,张超</v>
+        <v/>
       </c>
       <c r="G3" t="str">
         <v/>
@@ -467,19 +475,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>陈湘刚</v>
+        <v>郝常铭,梁雨果,张营营,王维,鲁毫辉,余振强</v>
       </c>
       <c r="C4" t="str">
-        <v>张宇,赵洲洋,陈湘刚</v>
+        <v>张营营,鲁毫辉,余振强,王维</v>
       </c>
       <c r="D4" t="str">
-        <v>王莉莉,张宇,赵洲洋</v>
+        <v>梁雨果,鲁毫辉,余振强,王维</v>
       </c>
       <c r="E4" t="str">
-        <v>王莉莉,刘冲,张宇</v>
+        <v>梁雨果,郝常铭,张营营,鲁毫辉,王维</v>
       </c>
       <c r="F4" t="str">
-        <v>陈湘刚,刘冲</v>
+        <v>时权,郝常铭,梁雨果,王维,鲁毫辉,余振强</v>
       </c>
       <c r="G4" t="str">
         <v/>
@@ -490,21 +498,67 @@
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>张宇,张超</v>
+        <v>鲁毫辉,王维</v>
       </c>
       <c r="C5" t="str">
-        <v>赵洲洋,张超</v>
+        <v>余振强</v>
       </c>
       <c r="D5" t="str">
-        <v>赵洲洋,陈湘刚</v>
+        <v>王维</v>
       </c>
       <c r="E5" t="str">
-        <v>王莉莉,刘冲,张宇</v>
+        <v>时权,郝常铭,张营营,梁雨果,王维,余振强</v>
       </c>
       <c r="F5" t="str">
-        <v>王莉莉,刘冲,赵洲洋</v>
+        <v>王维</v>
       </c>
       <c r="G5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <v>梁雨果,余振强,王维</v>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v>余振强</v>
+      </c>
+      <c r="E6" t="str">
+        <v>时权,郝常铭,张营营,鲁毫辉</v>
+      </c>
+      <c r="F6" t="str">
+        <v>张营营,时权,余振强</v>
+      </c>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>梁雨果,郝常铭,张营营,鲁毫辉,余振强</v>
+      </c>
+      <c r="C7" t="str">
+        <v>郝常铭,鲁毫辉,余振强</v>
+      </c>
+      <c r="D7" t="str">
+        <v>时权,梁雨果,张营营,鲁毫辉,余振强</v>
+      </c>
+      <c r="E7" t="str">
+        <v>张营营,时权,鲁毫辉</v>
+      </c>
+      <c r="F7" t="str">
+        <v>张营营,时权,余振强</v>
+      </c>
+      <c r="G7" t="str">
         <v/>
       </c>
     </row>

--- a/public/result_xlsx/output.xlsx
+++ b/public/result_xlsx/output.xlsx
@@ -10,7 +10,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="21">
+  <numFmts count="13">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
@@ -24,14 +24,6 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="176" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="177" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="178" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="179" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="180" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="182" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="183" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -429,19 +421,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>梁雨果,余振强</v>
+        <v>李名扬,梁雨果,王艳丽,韦沙沙</v>
       </c>
       <c r="C2" t="str">
-        <v>郝常铭</v>
+        <v/>
       </c>
       <c r="D2" t="str">
-        <v>郝常铭,鲁毫辉,王维</v>
+        <v>王艳丽,韦沙沙,张君告</v>
       </c>
       <c r="E2" t="str">
         <v/>
       </c>
       <c r="F2" t="str">
-        <v>王维</v>
+        <v>刘冲,张君告,黄萌萌,王艳丽,韦沙沙</v>
       </c>
       <c r="G2" t="str">
         <v/>
@@ -452,19 +444,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v/>
+        <v>梁雨果</v>
       </c>
       <c r="C3" t="str">
-        <v>梁雨果,王维</v>
+        <v>张君告,梁雨果</v>
       </c>
       <c r="D3" t="str">
-        <v/>
+        <v>刘冲,黄萌萌</v>
       </c>
       <c r="E3" t="str">
-        <v/>
+        <v>吴精丰,刘冲,黄萌萌</v>
       </c>
       <c r="F3" t="str">
-        <v/>
+        <v>黄萌萌</v>
       </c>
       <c r="G3" t="str">
         <v/>
@@ -475,19 +467,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>郝常铭,梁雨果,张营营,王维,鲁毫辉,余振强</v>
+        <v>张超帅,李南星,吴精丰,崔亚菲,彭锦兰,李名扬,刘冲,梁雨果,王林凤,张君告,黄萌萌,王艳丽,韦沙沙</v>
       </c>
       <c r="C4" t="str">
-        <v>张营营,鲁毫辉,余振强,王维</v>
+        <v>张超帅,彭锦兰,吴精丰,崔亚菲,李名扬,王林凤,黄萌萌,张君告,王艳丽,韦沙沙</v>
       </c>
       <c r="D4" t="str">
-        <v>梁雨果,鲁毫辉,余振强,王维</v>
+        <v>王一帆,张超帅,吴精丰,崔亚菲,彭锦兰,李名扬,刘冲,梁雨果,王林凤,张君告,黄萌萌,王艳丽,韦沙沙</v>
       </c>
       <c r="E4" t="str">
-        <v>梁雨果,郝常铭,张营营,鲁毫辉,王维</v>
+        <v>张超帅,吴精丰,彭锦兰,崔亚菲,李名扬,刘冲,梁雨果,王林凤,黄萌萌,王艳丽,韦沙沙</v>
       </c>
       <c r="F4" t="str">
-        <v>时权,郝常铭,梁雨果,王维,鲁毫辉,余振强</v>
+        <v>王一帆,张超帅,吴精丰,彭锦兰,李名扬,刘冲,梁雨果,王林凤,张君告,黄萌萌,王艳丽,韦沙沙</v>
       </c>
       <c r="G4" t="str">
         <v/>
@@ -498,19 +490,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>鲁毫辉,王维</v>
+        <v>张君告,王艳丽,韦沙沙,黄萌萌</v>
       </c>
       <c r="C5" t="str">
-        <v>余振强</v>
+        <v>刘冲,黄萌萌</v>
       </c>
       <c r="D5" t="str">
-        <v>王维</v>
+        <v>王林凤,张君告,王艳丽,韦沙沙</v>
       </c>
       <c r="E5" t="str">
-        <v>时权,郝常铭,张营营,梁雨果,王维,余振强</v>
+        <v>王一帆,李南星,张超帅,吴精丰,崔亚菲,彭锦兰,李名扬,刘冲,梁雨果,王林凤,黄萌萌,王艳丽,韦沙沙</v>
       </c>
       <c r="F5" t="str">
-        <v>王维</v>
+        <v>彭锦兰,吴精丰,李名扬</v>
       </c>
       <c r="G5" t="str">
         <v/>
@@ -521,19 +513,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <v>梁雨果,余振强,王维</v>
+        <v>彭锦兰,刘冲,梁雨果,张君告,黄萌萌,王艳丽,韦沙沙</v>
       </c>
       <c r="C6" t="str">
-        <v/>
+        <v>张超帅,李名扬</v>
       </c>
       <c r="D6" t="str">
-        <v>余振强</v>
+        <v>王一帆,刘冲,黄萌萌,王艳丽,韦沙沙</v>
       </c>
       <c r="E6" t="str">
-        <v>时权,郝常铭,张营营,鲁毫辉</v>
+        <v>张超帅,彭锦兰,李南星,崔亚菲,刘冲,梁雨果,王林凤,黄萌萌,王艳丽,韦沙沙</v>
       </c>
       <c r="F6" t="str">
-        <v>张营营,时权,余振强</v>
+        <v>王一帆,吴精丰,彭锦兰,李南星,李名扬,王林凤,张君告</v>
       </c>
       <c r="G6" t="str">
         <v/>
@@ -544,19 +536,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <v>梁雨果,郝常铭,张营营,鲁毫辉,余振强</v>
+        <v>崔亚菲,梁雨果,王艳丽,韦沙沙</v>
       </c>
       <c r="C7" t="str">
-        <v>郝常铭,鲁毫辉,余振强</v>
+        <v>崔亚菲,王林凤,张君告,王艳丽,韦沙沙</v>
       </c>
       <c r="D7" t="str">
-        <v>时权,梁雨果,张营营,鲁毫辉,余振强</v>
+        <v>李南星,崔亚菲,王林凤,梁雨果,张君告</v>
       </c>
       <c r="E7" t="str">
-        <v>张营营,时权,鲁毫辉</v>
+        <v>李南星,王艳丽,韦沙沙</v>
       </c>
       <c r="F7" t="str">
-        <v>张营营,时权,余振强</v>
+        <v>王一帆,吴精丰,崔亚菲,李南星,李名扬,王林凤,张君告</v>
       </c>
       <c r="G7" t="str">
         <v/>
